--- a/resources/Excel_Files/locators.xlsx
+++ b/resources/Excel_Files/locators.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="978" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -70,6 +70,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -159,7 +160,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
